--- a/datos/CTIC_casos/CasosPrefall.xlsx
+++ b/datos/CTIC_casos/CasosPrefall.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva\wsibc\prefall-model\datos\CTIC_casos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9A4EAB-3F5C-40CA-86A7-E93749B3C641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65159BBC-9667-4532-B347-70FD086EB7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A1BCC9C-FCA3-46E7-B8DC-6AB595D3286E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
   <si>
     <t>Caso</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Riesgo</t>
-  </si>
-  <si>
-    <t>Observ.</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -137,9 +134,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Sin datos</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Cojera </t>
     </r>
@@ -163,12 +157,27 @@
   <si>
     <t>ICTUS</t>
   </si>
+  <si>
+    <t>PTR izquierda</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Cadera D</t>
+  </si>
+  <si>
+    <t>Cadera D-I</t>
+  </si>
+  <si>
+    <t>Lumbalgia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +204,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2F5496"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,6 +304,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,16 +622,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7207C50E-FCE2-4A33-9973-2EC7CFFAA526}">
-  <dimension ref="A1:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828B3B18-9AC7-433B-94FA-EE0DA4D9E5A0}">
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,19 +656,13 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>36</v>
@@ -660,25 +674,21 @@
         <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4">
         <v>1.0900000000000001</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>51</v>
@@ -690,25 +700,21 @@
         <v>75</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
         <v>0.94</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>59</v>
@@ -720,25 +726,21 @@
         <v>105</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4">
         <v>1.1499999999999999</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>51</v>
@@ -750,7 +752,7 @@
         <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4">
         <v>0.19</v>
@@ -758,17 +760,13 @@
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>59</v>
@@ -780,25 +778,21 @@
         <v>85</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4">
         <v>0.73</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>47</v>
@@ -810,25 +804,21 @@
         <v>78</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4">
         <v>0.74</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
         <v>29</v>
@@ -840,25 +830,21 @@
         <v>47</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4">
         <v>0.94</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4">
         <v>54</v>
@@ -870,25 +856,21 @@
         <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4">
         <v>0.65</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>36</v>
@@ -900,25 +882,21 @@
         <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4">
         <v>0.96</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>50</v>
@@ -930,7 +908,7 @@
         <v>85</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4">
         <v>0.18</v>
@@ -938,17 +916,13 @@
       <c r="H11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4">
         <v>42</v>
@@ -960,25 +934,21 @@
         <v>75</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="4">
         <v>0.51</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4">
         <v>56</v>
@@ -990,25 +960,21 @@
         <v>90</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4">
         <v>0.76</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
         <v>47</v>
@@ -1020,25 +986,21 @@
         <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="4">
         <v>0.66</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4">
         <v>37</v>
@@ -1050,25 +1012,21 @@
         <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="4">
         <v>0.6</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>56</v>
@@ -1080,25 +1038,21 @@
         <v>115</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="4">
         <v>0.78</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
         <v>38</v>
@@ -1110,25 +1064,21 @@
         <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="4">
         <v>0.86</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4">
         <v>50</v>
@@ -1140,25 +1090,21 @@
         <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="4">
         <v>0.89</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4">
         <v>38</v>
@@ -1170,25 +1116,21 @@
         <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="4">
         <v>0.84</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
         <v>50</v>
@@ -1200,25 +1142,21 @@
         <v>46</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="4">
         <v>0.78</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4">
         <v>61</v>
@@ -1230,25 +1168,21 @@
         <v>48</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="4">
         <v>0.79</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4">
         <v>46</v>
@@ -1260,25 +1194,21 @@
         <v>115</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4">
         <v>0.65</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <v>55</v>
@@ -1290,25 +1220,21 @@
         <v>97</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="4">
         <v>0.81</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4">
         <v>32</v>
@@ -1320,25 +1246,21 @@
         <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="4">
         <v>0.64</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4">
         <v>56</v>
@@ -1350,25 +1272,21 @@
         <v>82</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="4">
         <v>0.62</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4">
         <v>33</v>
@@ -1380,27 +1298,21 @@
         <v>137</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="4">
         <v>0.66</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4">
         <v>48</v>
@@ -1412,25 +1324,21 @@
         <v>98</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="4">
         <v>0.38</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4">
         <v>31</v>
@@ -1442,25 +1350,21 @@
         <v>91</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="4">
         <v>0.85</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4">
         <v>46</v>
@@ -1472,25 +1376,21 @@
         <v>108</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="4">
         <v>1.03</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="4">
         <v>27</v>
@@ -1502,25 +1402,21 @@
         <v>65</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="4">
         <v>1.04</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="4">
         <v>52</v>
@@ -1532,25 +1428,21 @@
         <v>72</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="4">
         <v>1.06</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4">
         <v>59</v>
@@ -1562,25 +1454,21 @@
         <v>83</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="4">
         <v>0.74</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4">
         <v>58</v>
@@ -1592,25 +1480,21 @@
         <v>84</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="4">
         <v>0.67</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="4">
         <v>62</v>
@@ -1622,25 +1506,21 @@
         <v>73</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34" s="4">
         <v>0.44</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="4">
         <v>57</v>
@@ -1652,25 +1532,21 @@
         <v>73</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="4">
         <v>0.8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="4">
         <v>44</v>
@@ -1682,25 +1558,21 @@
         <v>81</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="4">
         <v>0.75</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4">
         <v>56</v>
@@ -1712,25 +1584,21 @@
         <v>78</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="4">
         <v>0.71</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="4">
         <v>36</v>
@@ -1742,7 +1610,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="4">
         <v>0.17</v>
@@ -1750,17 +1618,13 @@
       <c r="H38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="5">
-        <v>1</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="4">
         <v>27</v>
@@ -1772,25 +1636,21 @@
         <v>63</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="4">
         <v>0.65</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="4">
         <v>43</v>
@@ -1802,25 +1662,21 @@
         <v>108</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40" s="4">
         <v>0.74</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4">
         <v>32</v>
@@ -1832,25 +1688,21 @@
         <v>73</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="4">
         <v>1.08</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="4">
         <v>51</v>
@@ -1862,25 +1714,21 @@
         <v>82</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="4">
         <v>0.93</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="4">
         <v>55</v>
@@ -1892,25 +1740,21 @@
         <v>140</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="4">
         <v>0.77</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="4">
         <v>47</v>
@@ -1922,25 +1766,21 @@
         <v>110</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="4">
         <v>0.54</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="4">
         <v>61</v>
@@ -1952,60 +1792,624 @@
         <v>97</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" s="4">
         <v>0.44</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="4">
+        <v>61</v>
+      </c>
+      <c r="D46" s="4">
+        <v>150</v>
+      </c>
+      <c r="E46" s="4">
+        <v>60</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4">
+        <v>31</v>
+      </c>
+      <c r="D47" s="4">
+        <v>177</v>
+      </c>
+      <c r="E47" s="4">
+        <v>95</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="4">
+        <v>29</v>
+      </c>
+      <c r="D48" s="4">
+        <v>168</v>
+      </c>
+      <c r="E48" s="4">
+        <v>68</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="4">
+        <v>24</v>
+      </c>
+      <c r="D49" s="4">
+        <v>168</v>
+      </c>
+      <c r="E49" s="4">
+        <v>63</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43</v>
+      </c>
+      <c r="D50" s="4">
+        <v>182</v>
+      </c>
+      <c r="E50" s="4">
+        <v>91</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="4">
+        <v>18</v>
+      </c>
+      <c r="D51" s="4">
+        <v>171</v>
+      </c>
+      <c r="E51" s="4">
+        <v>70</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4">
+        <v>48</v>
+      </c>
+      <c r="D52" s="4">
+        <v>180</v>
+      </c>
+      <c r="E52" s="4">
+        <v>105</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4">
+        <v>59</v>
+      </c>
+      <c r="D53" s="4">
+        <v>167</v>
+      </c>
+      <c r="E53" s="4">
+        <v>63</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4">
+        <v>58</v>
+      </c>
+      <c r="D54" s="4">
+        <v>175</v>
+      </c>
+      <c r="E54" s="4">
+        <v>68</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4">
+        <v>60</v>
+      </c>
+      <c r="D55" s="4">
+        <v>170</v>
+      </c>
+      <c r="E55" s="4">
+        <v>72</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4">
+        <v>46</v>
+      </c>
+      <c r="D56" s="4">
+        <v>168</v>
+      </c>
+      <c r="E56" s="4">
+        <v>61</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="4">
+        <v>59</v>
+      </c>
+      <c r="D57" s="4">
+        <v>156</v>
+      </c>
+      <c r="E57" s="4">
+        <v>72</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="4">
+        <v>43</v>
+      </c>
+      <c r="D58" s="4">
+        <v>176</v>
+      </c>
+      <c r="E58" s="4">
+        <v>77</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4">
+        <v>54</v>
+      </c>
+      <c r="D59" s="4">
+        <v>176</v>
+      </c>
+      <c r="E59" s="4">
+        <v>95</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="4">
+        <v>54</v>
+      </c>
+      <c r="D60" s="4">
+        <v>166</v>
+      </c>
+      <c r="E60" s="4">
+        <v>105</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="4">
+        <v>33</v>
+      </c>
+      <c r="D61" s="4">
+        <v>178</v>
+      </c>
+      <c r="E61" s="4">
+        <v>68</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44</v>
+      </c>
+      <c r="D62" s="4">
+        <v>157</v>
+      </c>
+      <c r="E62" s="4">
+        <v>59</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4">
+        <v>49</v>
+      </c>
+      <c r="D63" s="4">
+        <v>173</v>
+      </c>
+      <c r="E63" s="4">
+        <v>108</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4">
+        <v>53</v>
+      </c>
+      <c r="D64" s="4">
+        <v>170</v>
+      </c>
+      <c r="E64" s="4">
+        <v>86</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4">
+        <v>50</v>
+      </c>
+      <c r="D65" s="4">
+        <v>175</v>
+      </c>
+      <c r="E65" s="4">
+        <v>75</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4">
+        <v>54</v>
+      </c>
+      <c r="D66" s="4">
+        <v>158</v>
+      </c>
+      <c r="E66" s="4">
+        <v>78</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="4">
+        <v>45</v>
+      </c>
+      <c r="D67" s="4">
+        <v>145</v>
+      </c>
+      <c r="E67" s="4">
+        <v>51</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4">
+        <v>51</v>
+      </c>
+      <c r="D68" s="4">
+        <v>180</v>
+      </c>
+      <c r="E68" s="4">
+        <v>107</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
